--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.012920.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.012920.xlsx_with_dialog_acts.xlsx
@@ -1441,12 +1441,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1609,12 +1609,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2033,12 +2033,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2499,12 +2499,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2709,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2751,12 +2751,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2793,12 +2793,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3003,12 +3003,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3927,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4641,12 +4641,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6077,12 +6077,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6119,12 +6119,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6837,12 +6837,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6963,12 +6963,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7005,12 +7005,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8601,12 +8601,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9147,12 +9147,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9441,12 +9441,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9739,12 +9739,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9823,12 +9823,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10327,12 +10327,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10411,12 +10411,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10579,12 +10579,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11209,12 +11209,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11965,12 +11965,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12175,12 +12175,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14741,12 +14741,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15287,12 +15287,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15371,12 +15371,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15455,12 +15455,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15749,12 +15749,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15833,12 +15833,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16337,12 +16337,12 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16589,12 +16589,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16631,12 +16631,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16757,12 +16757,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17135,12 +17135,12 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17345,12 +17345,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18101,12 +18101,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19235,12 +19235,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19277,12 +19277,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19655,12 +19655,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19697,12 +19697,12 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20117,12 +20117,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20705,12 +20705,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22217,12 +22217,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22427,12 +22427,12 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22511,12 +22511,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22595,12 +22595,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22805,12 +22805,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22931,12 +22931,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23103,12 +23103,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23187,12 +23187,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23313,12 +23313,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
